--- a/Code/Results/Cases/Case_5_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49367901180497</v>
+        <v>17.50317888919334</v>
       </c>
       <c r="C2">
-        <v>13.60735435990811</v>
+        <v>11.07942455786873</v>
       </c>
       <c r="D2">
-        <v>4.324130188300004</v>
+        <v>4.944133667519684</v>
       </c>
       <c r="E2">
-        <v>6.776418702070648</v>
+        <v>11.70524948033952</v>
       </c>
       <c r="F2">
-        <v>18.74549590729152</v>
+        <v>24.80316302425875</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.334322693846236</v>
+        <v>9.752315673379815</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.70352153661844</v>
+        <v>22.16467789400161</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.84040970600837</v>
+        <v>16.84879125733282</v>
       </c>
       <c r="C3">
-        <v>13.04616566882126</v>
+        <v>10.85001874444987</v>
       </c>
       <c r="D3">
-        <v>4.222619353561544</v>
+        <v>4.913707733208355</v>
       </c>
       <c r="E3">
-        <v>6.879996903583335</v>
+        <v>11.76323444131394</v>
       </c>
       <c r="F3">
-        <v>18.27305602333774</v>
+        <v>24.8541947975608</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.05797789655169</v>
+        <v>9.719777783250438</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.59934741537661</v>
+        <v>22.26503839062571</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.76576984087113</v>
+        <v>16.43507335361609</v>
       </c>
       <c r="C4">
-        <v>12.69014504704188</v>
+        <v>10.70643155393493</v>
       </c>
       <c r="D4">
-        <v>4.159261858404316</v>
+        <v>4.894950157265365</v>
       </c>
       <c r="E4">
-        <v>6.949173196256672</v>
+        <v>11.80116870401728</v>
       </c>
       <c r="F4">
-        <v>18.00497018406655</v>
+        <v>24.89489621898626</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.88651322608708</v>
+        <v>9.701404343723134</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.55768594952433</v>
+        <v>22.33383275546873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.31277194139653</v>
+        <v>16.26372241909267</v>
       </c>
       <c r="C5">
-        <v>12.54232829011941</v>
+        <v>10.64729319014809</v>
       </c>
       <c r="D5">
-        <v>4.133206522346656</v>
+        <v>4.887290831353396</v>
       </c>
       <c r="E5">
-        <v>6.978711332847897</v>
+        <v>11.81721351895135</v>
       </c>
       <c r="F5">
-        <v>17.90126302773663</v>
+        <v>24.91382617250817</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.816284241464377</v>
+        <v>9.694325670249009</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.54607965793982</v>
+        <v>22.36366128648234</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.23663855651644</v>
+        <v>16.23511070378867</v>
       </c>
       <c r="C6">
-        <v>12.51762283136751</v>
+        <v>10.63743738191168</v>
       </c>
       <c r="D6">
-        <v>4.128866441637732</v>
+        <v>4.886018177948373</v>
       </c>
       <c r="E6">
-        <v>6.983696038312995</v>
+        <v>11.81991316183914</v>
       </c>
       <c r="F6">
-        <v>17.88437687341548</v>
+        <v>24.91711066439569</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.804604217695561</v>
+        <v>9.693175083761435</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.5444696273726</v>
+        <v>22.36872238322331</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.75972172240086</v>
+        <v>16.43277328385415</v>
       </c>
       <c r="C7">
-        <v>12.68816240900074</v>
+        <v>10.70563644253084</v>
       </c>
       <c r="D7">
-        <v>4.158911394653093</v>
+        <v>4.894846918753007</v>
       </c>
       <c r="E7">
-        <v>6.949566167752824</v>
+        <v>11.80138271599648</v>
       </c>
       <c r="F7">
-        <v>18.00354912931558</v>
+        <v>24.89514204168978</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.885567402676035</v>
+        <v>9.701307217238291</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.55750799971164</v>
+        <v>22.33422778110372</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93592217574689</v>
+        <v>17.28015647762716</v>
       </c>
       <c r="C8">
-        <v>13.41631198055433</v>
+        <v>11.00092820694904</v>
       </c>
       <c r="D8">
-        <v>4.289355720075877</v>
+        <v>4.933660746441283</v>
       </c>
       <c r="E8">
-        <v>6.810940264081378</v>
+        <v>11.72475888665896</v>
       </c>
       <c r="F8">
-        <v>18.57804720879797</v>
+        <v>24.81880784429977</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.239463277546483</v>
+        <v>9.740766662241798</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.66283605306677</v>
+        <v>22.19778796858003</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73601388932658</v>
+        <v>18.83800791761074</v>
       </c>
       <c r="C9">
-        <v>14.74815711323739</v>
+        <v>11.55577663214025</v>
       </c>
       <c r="D9">
-        <v>4.536104119454351</v>
+        <v>5.009013080883248</v>
       </c>
       <c r="E9">
-        <v>6.586066294650752</v>
+        <v>11.59299367616743</v>
       </c>
       <c r="F9">
-        <v>19.87762449965847</v>
+        <v>24.7439058262276</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.915675065998606</v>
+        <v>9.830641276665935</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.05600722110164</v>
+        <v>21.9875485657095</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.24996553623381</v>
+        <v>19.90849999955306</v>
       </c>
       <c r="C10">
-        <v>15.66253054802372</v>
+        <v>11.94546786629311</v>
       </c>
       <c r="D10">
-        <v>4.710827327393818</v>
+        <v>5.063698408051994</v>
       </c>
       <c r="E10">
-        <v>6.453631686116709</v>
+        <v>11.50745517668962</v>
       </c>
       <c r="F10">
-        <v>20.93486185517726</v>
+        <v>24.73499735289403</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.397621676584818</v>
+        <v>9.903944264812464</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.47039470879687</v>
+        <v>21.86856891161246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.33485083583676</v>
+        <v>20.37758168278794</v>
       </c>
       <c r="C11">
-        <v>16.06375944911659</v>
+        <v>12.11823920890677</v>
       </c>
       <c r="D11">
-        <v>4.78870848916621</v>
+        <v>5.088384418048396</v>
       </c>
       <c r="E11">
-        <v>6.401535469012165</v>
+        <v>11.47098805373884</v>
       </c>
       <c r="F11">
-        <v>21.43730251346596</v>
+        <v>24.74103849321733</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.613012535718202</v>
+        <v>9.938789744123891</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.68825297457815</v>
+        <v>21.82225644401392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.73735876816916</v>
+        <v>20.55251141460301</v>
       </c>
       <c r="C12">
-        <v>16.21352933306529</v>
+        <v>12.18296948771371</v>
       </c>
       <c r="D12">
-        <v>4.817957481767062</v>
+        <v>5.097701144789268</v>
       </c>
       <c r="E12">
-        <v>6.38307591444532</v>
+        <v>11.45753055120785</v>
       </c>
       <c r="F12">
-        <v>21.63059417528601</v>
+        <v>24.7447812331354</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.693983336065481</v>
+        <v>9.952193066900533</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.7751140938221</v>
+        <v>21.80585097232749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.65103914432526</v>
+        <v>20.51495917433762</v>
       </c>
       <c r="C13">
-        <v>16.18137071449075</v>
+        <v>12.16906026678991</v>
       </c>
       <c r="D13">
-        <v>4.811669169764868</v>
+        <v>5.095696076470498</v>
       </c>
       <c r="E13">
-        <v>6.386993483532874</v>
+        <v>11.46041321420474</v>
       </c>
       <c r="F13">
-        <v>21.588831549395</v>
+        <v>24.74391041298678</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.676571720999551</v>
+        <v>9.949297289707184</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.7562108760138</v>
+        <v>21.8093337013146</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.36813127723837</v>
+        <v>20.39202807111113</v>
       </c>
       <c r="C14">
-        <v>16.07612476623515</v>
+        <v>12.12357878465577</v>
       </c>
       <c r="D14">
-        <v>4.791119754458426</v>
+        <v>5.089151561002133</v>
       </c>
       <c r="E14">
-        <v>6.399990792592019</v>
+        <v>11.46987384465653</v>
       </c>
       <c r="F14">
-        <v>21.45314436270048</v>
+        <v>24.74131723411847</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.619686127439156</v>
+        <v>9.939888317279522</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.6953108992949</v>
+        <v>21.82088401945856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.19376319078428</v>
+        <v>20.31637390677396</v>
       </c>
       <c r="C15">
-        <v>16.01137517844352</v>
+        <v>12.09562827868085</v>
       </c>
       <c r="D15">
-        <v>4.778500671434287</v>
+        <v>5.085138660448555</v>
       </c>
       <c r="E15">
-        <v>6.408120174755391</v>
+        <v>11.47571457739528</v>
       </c>
       <c r="F15">
-        <v>21.3704247403895</v>
+        <v>24.73991840994902</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.584763829911763</v>
+        <v>9.934151921195255</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.65858000643824</v>
+        <v>21.82810660143353</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.17789502044545</v>
+        <v>19.87747300273855</v>
       </c>
       <c r="C16">
-        <v>15.63600844989133</v>
+        <v>11.93408216381536</v>
       </c>
       <c r="D16">
-        <v>4.705704257501613</v>
+        <v>5.062080947922722</v>
       </c>
       <c r="E16">
-        <v>6.45720831775093</v>
+        <v>11.50988760467902</v>
       </c>
       <c r="F16">
-        <v>20.90245313350172</v>
+        <v>24.73480601242</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.383464306279521</v>
+        <v>9.901696568549456</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.45676035264046</v>
+        <v>21.8717534898097</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.5397427527294</v>
+        <v>19.60354211103066</v>
       </c>
       <c r="C17">
-        <v>15.40192209906031</v>
+        <v>11.83379132265316</v>
       </c>
       <c r="D17">
-        <v>4.660626200663748</v>
+        <v>5.047884169919006</v>
       </c>
       <c r="E17">
-        <v>6.489475344791929</v>
+        <v>11.53147798287355</v>
       </c>
       <c r="F17">
-        <v>20.62082582009241</v>
+        <v>24.73425810902031</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.258956286743706</v>
+        <v>9.882165072762431</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.34057512064807</v>
+        <v>21.90053658827511</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.16715897034934</v>
+        <v>19.44430687535157</v>
       </c>
       <c r="C18">
-        <v>15.26589791426416</v>
+        <v>11.77568561968917</v>
       </c>
       <c r="D18">
-        <v>4.634548393642059</v>
+        <v>5.039700849704976</v>
       </c>
       <c r="E18">
-        <v>6.50879523086712</v>
+        <v>11.54412629373983</v>
       </c>
       <c r="F18">
-        <v>20.46086809476716</v>
+        <v>24.73489292762898</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.186981971800495</v>
+        <v>9.871072692562558</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.27650386682673</v>
+        <v>21.91782666785976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.04005391919407</v>
+        <v>19.39010867105897</v>
       </c>
       <c r="C19">
-        <v>15.21960651937471</v>
+        <v>11.75594120355339</v>
       </c>
       <c r="D19">
-        <v>4.625693536993194</v>
+        <v>5.036927196375706</v>
       </c>
       <c r="E19">
-        <v>6.515464472715367</v>
+        <v>11.54844830661454</v>
       </c>
       <c r="F19">
-        <v>20.4070593637721</v>
+        <v>24.73527088215578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.162552148144556</v>
+        <v>9.86734155123778</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.25527905440601</v>
+        <v>21.92380672344672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.60824712988396</v>
+        <v>19.63287711771599</v>
       </c>
       <c r="C20">
-        <v>15.4269846237475</v>
+        <v>11.84451138526832</v>
       </c>
       <c r="D20">
-        <v>4.665440470137796</v>
+        <v>5.049397302446549</v>
       </c>
       <c r="E20">
-        <v>6.485961059359282</v>
+        <v>11.52915583442139</v>
       </c>
       <c r="F20">
-        <v>20.65059624867225</v>
+        <v>24.73421808502873</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.272248017637544</v>
+        <v>9.88422963039592</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.35265697418739</v>
+        <v>21.89739646469339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.45145276636112</v>
+        <v>20.42821016875106</v>
       </c>
       <c r="C21">
-        <v>16.1070971823983</v>
+        <v>12.13695700583482</v>
       </c>
       <c r="D21">
-        <v>4.797162298482159</v>
+        <v>5.091074725201562</v>
       </c>
       <c r="E21">
-        <v>6.39613794058073</v>
+        <v>11.4670854781151</v>
       </c>
       <c r="F21">
-        <v>21.49291723579779</v>
+        <v>24.74203940287827</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.636411164137913</v>
+        <v>9.942646374503138</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.71307924364463</v>
+        <v>21.81746061996514</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.60769514171456</v>
+        <v>20.93221310807196</v>
       </c>
       <c r="C22">
-        <v>16.53894719716627</v>
+        <v>12.32401965935733</v>
       </c>
       <c r="D22">
-        <v>4.881829922180423</v>
+        <v>5.118128921544658</v>
       </c>
       <c r="E22">
-        <v>6.344875931689105</v>
+        <v>11.42856964173144</v>
       </c>
       <c r="F22">
-        <v>22.06105437563366</v>
+        <v>24.75563286880459</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.870945036713692</v>
+        <v>9.982034329774613</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.97412072846411</v>
+        <v>21.77182016282529</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.99497084081372</v>
+        <v>20.66470044453159</v>
       </c>
       <c r="C23">
-        <v>16.30963025671978</v>
+        <v>12.22456769586515</v>
       </c>
       <c r="D23">
-        <v>4.836774781469777</v>
+        <v>5.10370774827059</v>
       </c>
       <c r="E23">
-        <v>6.371520376789958</v>
+        <v>11.44893853586339</v>
       </c>
       <c r="F23">
-        <v>21.75623307043504</v>
+        <v>24.74760096613188</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.746097600041201</v>
+        <v>9.960904160279009</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.83242351610889</v>
+        <v>21.79557245513063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.5772940697559</v>
+        <v>19.61962019812058</v>
       </c>
       <c r="C24">
-        <v>15.41565835272483</v>
+        <v>11.83966623417965</v>
       </c>
       <c r="D24">
-        <v>4.663264441992782</v>
+        <v>5.048713281583223</v>
       </c>
       <c r="E24">
-        <v>6.487547479283395</v>
+        <v>11.53020494351291</v>
       </c>
       <c r="F24">
-        <v>20.63713094799028</v>
+        <v>24.73423322151154</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.266240047072717</v>
+        <v>9.883295818029572</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.34718629082998</v>
+        <v>21.89881380297209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.75732308489043</v>
+        <v>18.42888426474853</v>
       </c>
       <c r="C25">
-        <v>14.39878743843871</v>
+        <v>11.40861025147862</v>
       </c>
       <c r="D25">
-        <v>4.470436582803406</v>
+        <v>4.988731648774437</v>
       </c>
       <c r="E25">
-        <v>6.641468833784442</v>
+        <v>11.62666038224049</v>
       </c>
       <c r="F25">
-        <v>19.50780469675141</v>
+        <v>24.75610118112119</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.735102315613081</v>
+        <v>9.805024285433371</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.92837278831171</v>
+        <v>22.03823061516892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_217/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.50317888919334</v>
+        <v>24.49367901180498</v>
       </c>
       <c r="C2">
-        <v>11.07942455786873</v>
+        <v>13.60735435990816</v>
       </c>
       <c r="D2">
-        <v>4.944133667519684</v>
+        <v>4.324130188299987</v>
       </c>
       <c r="E2">
-        <v>11.70524948033952</v>
+        <v>6.776418702070595</v>
       </c>
       <c r="F2">
-        <v>24.80316302425875</v>
+        <v>18.74549590729146</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.752315673379815</v>
+        <v>7.334322693846201</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.16467789400161</v>
+        <v>14.70352153661838</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.84879125733282</v>
+        <v>22.8404097060084</v>
       </c>
       <c r="C3">
-        <v>10.85001874444987</v>
+        <v>13.04616566882128</v>
       </c>
       <c r="D3">
-        <v>4.913707733208355</v>
+        <v>4.222619353561482</v>
       </c>
       <c r="E3">
-        <v>11.76323444131394</v>
+        <v>6.879996903583328</v>
       </c>
       <c r="F3">
-        <v>24.8541947975608</v>
+        <v>18.27305602333765</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.719777783250438</v>
+        <v>7.057977896551703</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.26503839062571</v>
+        <v>14.59934741537653</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.43507335361609</v>
+        <v>21.76576984087114</v>
       </c>
       <c r="C4">
-        <v>10.70643155393493</v>
+        <v>12.69014504704203</v>
       </c>
       <c r="D4">
-        <v>4.894950157265365</v>
+        <v>4.159261858404257</v>
       </c>
       <c r="E4">
-        <v>11.80116870401728</v>
+        <v>6.949173196256858</v>
       </c>
       <c r="F4">
-        <v>24.89489621898626</v>
+        <v>18.00497018406645</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.701404343723134</v>
+        <v>6.886513226087112</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.33383275546873</v>
+        <v>14.55768594952425</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.26372241909267</v>
+        <v>21.31277194139651</v>
       </c>
       <c r="C5">
-        <v>10.64729319014809</v>
+        <v>12.54232829011948</v>
       </c>
       <c r="D5">
-        <v>4.887290831353396</v>
+        <v>4.133206522346769</v>
       </c>
       <c r="E5">
-        <v>11.81721351895135</v>
+        <v>6.97871133284796</v>
       </c>
       <c r="F5">
-        <v>24.91382617250817</v>
+        <v>17.90126302773682</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.694325670249009</v>
+        <v>6.816284241464412</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.36366128648234</v>
+        <v>14.54607965793996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23511070378867</v>
+        <v>21.2366385565164</v>
       </c>
       <c r="C6">
-        <v>10.63743738191168</v>
+        <v>12.51762283136751</v>
       </c>
       <c r="D6">
-        <v>4.886018177948373</v>
+        <v>4.128866441637669</v>
       </c>
       <c r="E6">
-        <v>11.81991316183914</v>
+        <v>6.983696038313059</v>
       </c>
       <c r="F6">
-        <v>24.91711066439569</v>
+        <v>17.8843768734155</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.693175083761435</v>
+        <v>6.804604217695605</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.36872238322331</v>
+        <v>14.54446962737262</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.43277328385415</v>
+        <v>21.75972172240088</v>
       </c>
       <c r="C7">
-        <v>10.70563644253084</v>
+        <v>12.68816240900082</v>
       </c>
       <c r="D7">
-        <v>4.894846918753007</v>
+        <v>4.158911394652985</v>
       </c>
       <c r="E7">
-        <v>11.80138271599648</v>
+        <v>6.94956616775288</v>
       </c>
       <c r="F7">
-        <v>24.89514204168978</v>
+        <v>18.00354912931558</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.701307217238291</v>
+        <v>6.885567402676032</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.33422778110372</v>
+        <v>14.55750799971162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.28015647762716</v>
+        <v>23.93592217574689</v>
       </c>
       <c r="C8">
-        <v>11.00092820694904</v>
+        <v>13.41631198055452</v>
       </c>
       <c r="D8">
-        <v>4.933660746441283</v>
+        <v>4.289355720076001</v>
       </c>
       <c r="E8">
-        <v>11.72475888665896</v>
+        <v>6.810940264081555</v>
       </c>
       <c r="F8">
-        <v>24.81880784429977</v>
+        <v>18.57804720879791</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.740766662241798</v>
+        <v>7.239463277546526</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.19778796858003</v>
+        <v>14.66283605306674</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.83800791761074</v>
+        <v>27.73601388932662</v>
       </c>
       <c r="C9">
-        <v>11.55577663214025</v>
+        <v>14.74815711323739</v>
       </c>
       <c r="D9">
-        <v>5.009013080883248</v>
+        <v>4.536104119454381</v>
       </c>
       <c r="E9">
-        <v>11.59299367616743</v>
+        <v>6.586066294650701</v>
       </c>
       <c r="F9">
-        <v>24.7439058262276</v>
+        <v>19.87762449965847</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.830641276665935</v>
+        <v>7.915675065998591</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.9875485657095</v>
+        <v>15.05600722110164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.90849999955306</v>
+        <v>30.2499655362338</v>
       </c>
       <c r="C10">
-        <v>11.94546786629311</v>
+        <v>15.66253054802363</v>
       </c>
       <c r="D10">
-        <v>5.063698408051994</v>
+        <v>4.710827327393909</v>
       </c>
       <c r="E10">
-        <v>11.50745517668962</v>
+        <v>6.453631686116568</v>
       </c>
       <c r="F10">
-        <v>24.73499735289403</v>
+        <v>20.93486185517727</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.903944264812464</v>
+        <v>8.3976216765848</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.86856891161246</v>
+        <v>15.47039470879688</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.37758168278794</v>
+        <v>31.33485083583679</v>
       </c>
       <c r="C11">
-        <v>12.11823920890677</v>
+        <v>16.06375944911661</v>
       </c>
       <c r="D11">
-        <v>5.088384418048396</v>
+        <v>4.788708489166311</v>
       </c>
       <c r="E11">
-        <v>11.47098805373884</v>
+        <v>6.401535469012108</v>
       </c>
       <c r="F11">
-        <v>24.74103849321733</v>
+        <v>21.43730251346592</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.938789744123891</v>
+        <v>8.613012535718198</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.82225644401392</v>
+        <v>15.68825297457807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.55251141460301</v>
+        <v>31.73735876816918</v>
       </c>
       <c r="C12">
-        <v>12.18296948771371</v>
+        <v>16.21352933306533</v>
       </c>
       <c r="D12">
-        <v>5.097701144789268</v>
+        <v>4.817957481767024</v>
       </c>
       <c r="E12">
-        <v>11.45753055120785</v>
+        <v>6.383075914445308</v>
       </c>
       <c r="F12">
-        <v>24.7447812331354</v>
+        <v>21.63059417528594</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.952193066900533</v>
+        <v>8.693983336065452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.80585097232749</v>
+        <v>15.77511409382203</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.51495917433762</v>
+        <v>31.65103914432523</v>
       </c>
       <c r="C13">
-        <v>12.16906026678991</v>
+        <v>16.18137071449075</v>
       </c>
       <c r="D13">
-        <v>5.095696076470498</v>
+        <v>4.811669169764856</v>
       </c>
       <c r="E13">
-        <v>11.46041321420474</v>
+        <v>6.386993483532811</v>
       </c>
       <c r="F13">
-        <v>24.74391041298678</v>
+        <v>21.58883154939503</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.949297289707184</v>
+        <v>8.676571720999517</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.8093337013146</v>
+        <v>15.75621087601387</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.39202807111113</v>
+        <v>31.36813127723835</v>
       </c>
       <c r="C14">
-        <v>12.12357878465577</v>
+        <v>16.07612476623519</v>
       </c>
       <c r="D14">
-        <v>5.089151561002133</v>
+        <v>4.79111975445859</v>
       </c>
       <c r="E14">
-        <v>11.46987384465653</v>
+        <v>6.399990792592071</v>
       </c>
       <c r="F14">
-        <v>24.74131723411847</v>
+        <v>21.45314436270042</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.939888317279522</v>
+        <v>8.619686127439159</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.82088401945856</v>
+        <v>15.69531089929485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.31637390677396</v>
+        <v>31.19376319078424</v>
       </c>
       <c r="C15">
-        <v>12.09562827868085</v>
+        <v>16.01137517844362</v>
       </c>
       <c r="D15">
-        <v>5.085138660448555</v>
+        <v>4.778500671434363</v>
       </c>
       <c r="E15">
-        <v>11.47571457739528</v>
+        <v>6.408120174755401</v>
       </c>
       <c r="F15">
-        <v>24.73991840994902</v>
+        <v>21.37042474038959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.934151921195255</v>
+        <v>8.584763829911784</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.82810660143353</v>
+        <v>15.65858000643835</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.87747300273855</v>
+        <v>30.17789502044547</v>
       </c>
       <c r="C16">
-        <v>11.93408216381536</v>
+        <v>15.63600844989132</v>
       </c>
       <c r="D16">
-        <v>5.062080947922722</v>
+        <v>4.705704257501652</v>
       </c>
       <c r="E16">
-        <v>11.50988760467902</v>
+        <v>6.457208317750927</v>
       </c>
       <c r="F16">
-        <v>24.73480601242</v>
+        <v>20.90245313350173</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.901696568549456</v>
+        <v>8.383464306279512</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.8717534898097</v>
+        <v>15.45676035264049</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.60354211103066</v>
+        <v>29.53974275272937</v>
       </c>
       <c r="C17">
-        <v>11.83379132265316</v>
+        <v>15.40192209906029</v>
       </c>
       <c r="D17">
-        <v>5.047884169919006</v>
+        <v>4.660626200663765</v>
       </c>
       <c r="E17">
-        <v>11.53147798287355</v>
+        <v>6.489475344791927</v>
       </c>
       <c r="F17">
-        <v>24.73425810902031</v>
+        <v>20.62082582009248</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.882165072762431</v>
+        <v>8.258956286743704</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.90053658827511</v>
+        <v>15.34057512064816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.44430687535157</v>
+        <v>29.1671589703494</v>
       </c>
       <c r="C18">
-        <v>11.77568561968917</v>
+        <v>15.26589791426408</v>
       </c>
       <c r="D18">
-        <v>5.039700849704976</v>
+        <v>4.634548393642078</v>
       </c>
       <c r="E18">
-        <v>11.54412629373983</v>
+        <v>6.508795230867068</v>
       </c>
       <c r="F18">
-        <v>24.73489292762898</v>
+        <v>20.46086809476709</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.871072692562558</v>
+        <v>8.186981971800504</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.91782666785976</v>
+        <v>15.27650386682665</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.39010867105897</v>
+        <v>29.04005391919408</v>
       </c>
       <c r="C19">
-        <v>11.75594120355339</v>
+        <v>15.21960651937462</v>
       </c>
       <c r="D19">
-        <v>5.036927196375706</v>
+        <v>4.625693536993135</v>
       </c>
       <c r="E19">
-        <v>11.54844830661454</v>
+        <v>6.515464472715419</v>
       </c>
       <c r="F19">
-        <v>24.73527088215578</v>
+        <v>20.40705936377216</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.86734155123778</v>
+        <v>8.162552148144567</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.92380672344672</v>
+        <v>15.25527905440605</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.63287711771599</v>
+        <v>29.60824712988395</v>
       </c>
       <c r="C20">
-        <v>11.84451138526832</v>
+        <v>15.42698462374753</v>
       </c>
       <c r="D20">
-        <v>5.049397302446549</v>
+        <v>4.665440470137848</v>
       </c>
       <c r="E20">
-        <v>11.52915583442139</v>
+        <v>6.485961059359225</v>
       </c>
       <c r="F20">
-        <v>24.73421808502873</v>
+        <v>20.6505962486723</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.88422963039592</v>
+        <v>8.272248017637516</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.89739646469339</v>
+        <v>15.35265697418744</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.42821016875106</v>
+        <v>31.45145276636109</v>
       </c>
       <c r="C21">
-        <v>12.13695700583482</v>
+        <v>16.10709718239832</v>
       </c>
       <c r="D21">
-        <v>5.091074725201562</v>
+        <v>4.797162298482014</v>
       </c>
       <c r="E21">
-        <v>11.4670854781151</v>
+        <v>6.396137940580698</v>
       </c>
       <c r="F21">
-        <v>24.74203940287827</v>
+        <v>21.49291723579785</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.942646374503138</v>
+        <v>8.636411164137872</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.81746061996514</v>
+        <v>15.71307924364467</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.93221310807196</v>
+        <v>32.60769514171452</v>
       </c>
       <c r="C22">
-        <v>12.32401965935733</v>
+        <v>16.5389471971663</v>
       </c>
       <c r="D22">
-        <v>5.118128921544658</v>
+        <v>4.881829922180516</v>
       </c>
       <c r="E22">
-        <v>11.42856964173144</v>
+        <v>6.344875931688894</v>
       </c>
       <c r="F22">
-        <v>24.75563286880459</v>
+        <v>22.0610543756336</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.982034329774613</v>
+        <v>8.870945036713652</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.77182016282529</v>
+        <v>15.97412072846409</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.66470044453159</v>
+        <v>31.99497084081371</v>
       </c>
       <c r="C23">
-        <v>12.22456769586515</v>
+        <v>16.30963025671977</v>
       </c>
       <c r="D23">
-        <v>5.10370774827059</v>
+        <v>4.836774781469715</v>
       </c>
       <c r="E23">
-        <v>11.44893853586339</v>
+        <v>6.37152037678982</v>
       </c>
       <c r="F23">
-        <v>24.74760096613188</v>
+        <v>21.75623307043507</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.960904160279009</v>
+        <v>8.746097600041178</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.79557245513063</v>
+        <v>15.83242351610891</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.61962019812058</v>
+        <v>29.5772940697559</v>
       </c>
       <c r="C24">
-        <v>11.83966623417965</v>
+        <v>15.41565835272483</v>
       </c>
       <c r="D24">
-        <v>5.048713281583223</v>
+        <v>4.663264441992672</v>
       </c>
       <c r="E24">
-        <v>11.53020494351291</v>
+        <v>6.4875474792834</v>
       </c>
       <c r="F24">
-        <v>24.73423322151154</v>
+        <v>20.6371309479903</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.883295818029572</v>
+        <v>8.266240047072712</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.89881380297209</v>
+        <v>15.34718629082997</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.42888426474853</v>
+        <v>26.75732308489053</v>
       </c>
       <c r="C25">
-        <v>11.40861025147862</v>
+        <v>14.39878743843854</v>
       </c>
       <c r="D25">
-        <v>4.988731648774437</v>
+        <v>4.470436582803284</v>
       </c>
       <c r="E25">
-        <v>11.62666038224049</v>
+        <v>6.641468833784327</v>
       </c>
       <c r="F25">
-        <v>24.75610118112119</v>
+        <v>19.50780469675141</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.805024285433371</v>
+        <v>7.735102315613107</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.03823061516892</v>
+        <v>14.92837278831161</v>
       </c>
     </row>
   </sheetData>
